--- a/Data_Cleaning/Features.xlsx
+++ b/Data_Cleaning/Features.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6ceb81bea336fd3/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="303" documentId="11_F25DC773A252ABDACC1048CE09DC74BC5BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456E11BB-B1BD-4077-B854-064E3C8A8879}"/>
+  <xr:revisionPtr revIDLastSave="426" documentId="11_F25DC773A252ABDACC1048CE09DC74BC5BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BDC81FE-7753-44F0-99A2-0A67BFB05A16}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Updata One" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Updata One'!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="40">
   <si>
     <t>Vars</t>
   </si>
@@ -136,13 +138,37 @@
   </si>
   <si>
     <t xml:space="preserve">Median of Two versions </t>
+  </si>
+  <si>
+    <t>RaceOther</t>
+  </si>
+  <si>
+    <t>Qualityps</t>
+  </si>
+  <si>
+    <t>LivingWPartner</t>
+  </si>
+  <si>
+    <t>NeverMarried</t>
+  </si>
+  <si>
+    <t>Avaliablity</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Effectivenessp</t>
+  </si>
+  <si>
+    <t>MDWay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +180,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,15 +230,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -220,6 +258,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,11 +526,561 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFA06DB-CEF7-41D2-931F-7F2E17E4570C}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>MEDIAN(C2:G2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <f>MEDIAN(C3:G3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <f>MEDIAN(C4:G4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <f>MEDIAN(C5:G5)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <f>MEDIAN(C6:G6)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <f>MEDIAN(C7:G7)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <f>MEDIAN(C8:G8)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f>MEDIAN(C9:G9)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <f>MEDIAN(C10:G10)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <f>MEDIAN(C11:G11)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <f>MEDIAN(C12:G12)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <f>MEDIAN(C13:G13)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <f>MEDIAN(C14:G14)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <f>MEDIAN(C15:G15)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <f>MEDIAN(C16:G16)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <f>MEDIAN(C17:G17)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <f>MEDIAN(C18:G18)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <f>MEDIAN(C19:G19)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <f>MEDIAN(C20:G20)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>21</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <f>MEDIAN(C21:G21)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <f>MEDIAN(C22:G22)</f>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{2AFA06DB-CEF7-41D2-931F-7F2E17E4570C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H22">
+      <sortCondition ref="H1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -499,28 +1091,28 @@
     <col min="18" max="16384" width="8.9375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
       <c r="Q1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -567,199 +1159,199 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>16</v>
-      </c>
       <c r="D3" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>MEDIAN(C3:G3)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M3" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N3" s="3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5">
+        <v>8</v>
+      </c>
+      <c r="O3" s="4">
         <f>MEDIAN(J3:N3)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="3">
         <f>MEDIAN(C3:G3,J3:N3)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="3">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4</v>
-      </c>
       <c r="G4" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3">
         <f>MEDIAN(C4:G4)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K4" s="3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M4" s="3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N4" s="3">
-        <v>4</v>
-      </c>
-      <c r="O4" s="5">
+        <v>16</v>
+      </c>
+      <c r="O4" s="4">
         <f>MEDIAN(J4:N4)</f>
-        <v>3.5</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="3">
         <f>MEDIAN(C4:G4,J4:N4)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G5" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3">
         <f>MEDIAN(C5:G5)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K5" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M5" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N5" s="3">
-        <v>15</v>
-      </c>
-      <c r="O5" s="5">
+        <v>4</v>
+      </c>
+      <c r="O5" s="4">
         <f>MEDIAN(J5:N5)</f>
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" s="3">
         <f>MEDIAN(C5:G5,J5:N5)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3">
-        <v>10</v>
-      </c>
       <c r="G6" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3">
         <f>MEDIAN(C6:G6)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J6" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K6" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M6" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N6" s="3">
-        <v>9</v>
-      </c>
-      <c r="O6" s="5">
+        <v>15</v>
+      </c>
+      <c r="O6" s="4">
         <f>MEDIAN(J6:N6)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="3">
         <f>MEDIAN(C6:G6,J6:N6)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="3">
@@ -793,7 +1385,7 @@
       <c r="N7" s="3">
         <v>21</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
         <f>MEDIAN(J7:N7)</f>
         <v>20</v>
       </c>
@@ -802,762 +1394,762 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G8" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" s="3">
         <f>MEDIAN(C8:G8)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="3">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>2</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="O8" s="4">
         <f>MEDIAN(J8:N8)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <f>MEDIAN(C8:G8,J8:N8)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G9" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H9" s="3">
         <f>MEDIAN(C9:G9)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K9" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="M9" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N9" s="3">
-        <v>20</v>
-      </c>
-      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
         <f>MEDIAN(J9:N9)</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="3">
         <f>MEDIAN(C9:G9,J9:N9)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
         <v>6</v>
       </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
       <c r="F10" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G10" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H10" s="3">
         <f>MEDIAN(C10:G10)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J10" s="3">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="K10" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M10" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="N10" s="3">
-        <v>19</v>
-      </c>
-      <c r="O10" s="5">
+        <v>2</v>
+      </c>
+      <c r="O10" s="4">
         <f>MEDIAN(J10:N10)</f>
-        <v>19.5</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="3">
         <f>MEDIAN(C10:G10,J10:N10)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="3">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D11" s="3">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F11" s="3">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H11" s="3">
         <f>MEDIAN(C11:G11)</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J11" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K11" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M11" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N11" s="3">
-        <v>18</v>
-      </c>
-      <c r="O11" s="5">
+        <v>20</v>
+      </c>
+      <c r="O11" s="4">
         <f>MEDIAN(J11:N11)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="3">
         <f>MEDIAN(C11:G11,J11:N11)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G12" s="3">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H12" s="3">
         <f>MEDIAN(C12:G12)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J12" s="3">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
         <v>12</v>
       </c>
-      <c r="K12" s="3">
-        <v>14</v>
-      </c>
       <c r="M12" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N12" s="3">
-        <v>13</v>
-      </c>
-      <c r="O12" s="5">
+        <v>9</v>
+      </c>
+      <c r="O12" s="4">
         <f>MEDIAN(J12:N12)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q12" s="3">
         <f>MEDIAN(C12:G12,J12:N12)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3">
-        <v>9</v>
-      </c>
       <c r="D13" s="3">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F13" s="3">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
         <f>MEDIAN(C13:G13)</f>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J13" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K13" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M13" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N13" s="3">
-        <v>14</v>
-      </c>
-      <c r="O13" s="5">
+        <v>11</v>
+      </c>
+      <c r="O13" s="4">
         <f>MEDIAN(J13:N13)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="3">
         <f>MEDIAN(C13:G13,J13:N13)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3">
-        <v>4</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H14" s="3">
         <f>MEDIAN(C14:G14)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J14" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K14" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M14" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N14" s="3">
-        <v>16</v>
-      </c>
-      <c r="O14" s="5">
+        <v>19</v>
+      </c>
+      <c r="O14" s="4">
         <f>MEDIAN(J14:N14)</f>
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="Q14" s="3">
         <f>MEDIAN(C14:G14,J14:N14)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3">
-        <v>14</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5</v>
-      </c>
       <c r="G15" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H15" s="3">
         <f>MEDIAN(C15:G15)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J15" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K15" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M15" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N15" s="3">
-        <v>11</v>
-      </c>
-      <c r="O15" s="5">
+        <v>6</v>
+      </c>
+      <c r="O15" s="4">
         <f>MEDIAN(J15:N15)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q15" s="3">
         <f>MEDIAN(C15:G15,J15:N15)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E16" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H16" s="3">
         <f>MEDIAN(C16:G16)</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J16" s="3">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K16" s="3">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M16" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N16" s="3">
-        <v>8</v>
-      </c>
-      <c r="O16" s="5">
+        <v>17</v>
+      </c>
+      <c r="O16" s="4">
         <f>MEDIAN(J16:N16)</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="3">
         <f>MEDIAN(C16:G16,J16:N16)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="D17" s="3">
-        <v>15</v>
-      </c>
       <c r="E17" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H17" s="3">
         <f>MEDIAN(C17:G17)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J17" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N17" s="3">
-        <v>6</v>
-      </c>
-      <c r="O17" s="5">
+        <v>5</v>
+      </c>
+      <c r="O17" s="4">
         <f>MEDIAN(J17:N17)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="3">
         <f>MEDIAN(C17:G17,J17:N17)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
-        <v>17</v>
-      </c>
       <c r="E18" s="3">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G18" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H18" s="3">
         <f>MEDIAN(C18:G18)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K18" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M18" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N18" s="3">
-        <v>12</v>
-      </c>
-      <c r="O18" s="5">
+        <v>7</v>
+      </c>
+      <c r="O18" s="4">
         <f>MEDIAN(J18:N18)</f>
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="Q18" s="3">
         <f>MEDIAN(C18:G18,J18:N18)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D19" s="3">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3">
         <v>18</v>
       </c>
-      <c r="E19" s="3">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3">
-        <v>17</v>
-      </c>
       <c r="G19" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H19" s="3">
         <f>MEDIAN(C19:G19)</f>
         <v>17</v>
       </c>
       <c r="J19" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K19" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M19" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N19" s="3">
-        <v>10</v>
-      </c>
-      <c r="O19" s="5">
+        <v>12</v>
+      </c>
+      <c r="O19" s="4">
         <f>MEDIAN(J19:N19)</f>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Q19" s="3">
         <f>MEDIAN(C19:G19,J19:N19)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3">
+        <v>18</v>
+      </c>
+      <c r="E20" s="3">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3">
         <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3">
-        <v>14</v>
-      </c>
-      <c r="E20" s="3">
-        <v>19</v>
-      </c>
-      <c r="F20" s="3">
-        <v>14</v>
-      </c>
-      <c r="G20" s="3">
-        <v>9</v>
       </c>
       <c r="H20" s="3">
         <f>MEDIAN(C20:G20)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J20" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K20" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M20" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N20" s="3">
-        <v>17</v>
-      </c>
-      <c r="O20" s="5">
+        <v>10</v>
+      </c>
+      <c r="O20" s="4">
         <f>MEDIAN(J20:N20)</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="3">
         <f>MEDIAN(C20:G20,J20:N20)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="3">
-        <v>17</v>
-      </c>
-      <c r="D21" s="3">
-        <v>3</v>
-      </c>
       <c r="E21" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F21" s="3">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G21" s="3">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H21" s="3">
         <f>MEDIAN(C21:G21)</f>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J21" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K21" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M21" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N21" s="3">
-        <v>3</v>
-      </c>
-      <c r="O21" s="5">
+        <v>14</v>
+      </c>
+      <c r="O21" s="4">
         <f>MEDIAN(J21:N21)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Q21" s="3">
         <f>MEDIAN(C21:G21,J21:N21)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="3">
-        <v>19</v>
-      </c>
-      <c r="D22" s="3">
-        <v>5</v>
-      </c>
       <c r="E22" s="3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F22" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G22" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H22" s="3">
         <f>MEDIAN(C22:G22)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J22" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K22" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M22" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N22" s="3">
-        <v>5</v>
-      </c>
-      <c r="O22" s="5">
+        <v>13</v>
+      </c>
+      <c r="O22" s="4">
         <f>MEDIAN(J22:N22)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q22" s="3">
         <f>MEDIAN(C22:G22,J22:N22)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A23" s="3">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>16</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
       <c r="F23" s="3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G23" s="3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H23" s="3">
         <f>MEDIAN(C23:G23)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J23" s="3">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="K23" s="3">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M23" s="3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N23" s="3">
-        <v>7</v>
-      </c>
-      <c r="O23" s="5">
+        <v>18</v>
+      </c>
+      <c r="O23" s="4">
         <f>MEDIAN(J23:N23)</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="3">
         <f>MEDIAN(C23:G23,J23:N23)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:Q2" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Q23">
-      <sortCondition ref="A2"/>
+      <sortCondition ref="H2"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">
@@ -1569,7 +2161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBF2ADE-A116-499E-BD5F-52576997EBEE}">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -1604,7 +2196,7 @@
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -1633,7 +2225,7 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
       <c r="I2" s="3">
@@ -1662,7 +2254,7 @@
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>2</v>
       </c>
       <c r="I3" s="3">
@@ -1691,7 +2283,7 @@
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>3.5</v>
       </c>
       <c r="I4" s="3">
@@ -1720,7 +2312,7 @@
       <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>4</v>
       </c>
       <c r="I5" s="3">
@@ -1749,7 +2341,7 @@
       <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>5</v>
       </c>
       <c r="I6" s="3">
@@ -1778,7 +2370,7 @@
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>6</v>
       </c>
       <c r="I7" s="3">
@@ -1807,7 +2399,7 @@
       <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>7</v>
       </c>
       <c r="I8" s="3">
@@ -1836,7 +2428,7 @@
       <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>8</v>
       </c>
       <c r="I9" s="3">
@@ -1865,7 +2457,7 @@
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>9</v>
       </c>
       <c r="I10" s="3">
@@ -1894,7 +2486,7 @@
       <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>10</v>
       </c>
       <c r="I11" s="3">
@@ -1923,7 +2515,7 @@
       <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>11</v>
       </c>
       <c r="I12" s="3">
@@ -1952,7 +2544,7 @@
       <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>12.5</v>
       </c>
       <c r="I13" s="3">
@@ -1981,7 +2573,7 @@
       <c r="F14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>13</v>
       </c>
       <c r="I14" s="3">
@@ -2010,7 +2602,7 @@
       <c r="F15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>13</v>
       </c>
       <c r="I15" s="3">
@@ -2039,7 +2631,7 @@
       <c r="F16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>14</v>
       </c>
       <c r="I16" s="3">
@@ -2068,7 +2660,7 @@
       <c r="F17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>16</v>
       </c>
       <c r="I17" s="3">
@@ -2097,7 +2689,7 @@
       <c r="F18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>17</v>
       </c>
       <c r="I18" s="3">
@@ -2126,7 +2718,7 @@
       <c r="F19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>18</v>
       </c>
       <c r="I19" s="3">
@@ -2155,7 +2747,7 @@
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>19.5</v>
       </c>
       <c r="I20" s="3">
@@ -2184,7 +2776,7 @@
       <c r="F21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>20</v>
       </c>
       <c r="I21" s="3">
@@ -2213,7 +2805,7 @@
       <c r="F22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>20</v>
       </c>
       <c r="I22" s="3">
